--- a/December2020/WALIDAD.xlsx
+++ b/December2020/WALIDAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ALL THE BEST COMM-(661096390)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="27">
   <si>
     <t>ALL THE BEST COMMUNICATION-(661096390)</t>
   </si>
@@ -39,10 +39,10 @@
     <t>Receive Amount</t>
   </si>
   <si>
-    <t>Dues Amount</t>
+    <t>Transaction Type</t>
   </si>
   <si>
-    <t>Transaction Type</t>
+    <t>Dues Amount</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -113,11 +113,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,28 +135,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +157,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -178,8 +195,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -194,9 +234,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,37 +250,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -242,22 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,49 +305,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,133 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,55 +568,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,11 +590,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,15 +601,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,134 +619,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -777,20 +777,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,26 +1117,27 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="16382" width="9.14285714285714" style="1"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="15"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:8">
       <c r="A2" s="9" t="s">
@@ -1167,11 +1165,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1182,26 +1180,25 @@
       <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>2000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
       <c r="A5" s="10">
         <v>44168</v>
       </c>
-      <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -1211,25 +1208,25 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:5">
+    </row>
+    <row r="7" s="14" customFormat="1" spans="1:5">
       <c r="A7" s="10">
         <v>44173</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1000</v>
       </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>11</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
@@ -1239,11 +1236,11 @@
       <c r="B8" s="1">
         <v>3120</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
         <v>3000</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1"/>
@@ -1309,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1345,10 +1342,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>6</v>
@@ -1421,10 +1418,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>6</v>
@@ -1456,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1465,8 +1462,8 @@
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
@@ -1498,11 +1495,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1513,11 +1510,11 @@
       <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,11 +1524,11 @@
       <c r="C5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1547,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1558,17 +1555,18 @@
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:3">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -1593,11 +1591,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1608,11 +1606,11 @@
       <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>2000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -1622,11 +1620,11 @@
       <c r="C5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -1636,11 +1634,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -1650,11 +1648,11 @@
       <c r="B7" s="3">
         <v>1040</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
         <v>2000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
@@ -1664,11 +1662,11 @@
       <c r="B8" s="3">
         <v>2080</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1678,11 +1676,11 @@
       <c r="C9" s="3">
         <v>4000</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1692,15 +1690,16 @@
       <c r="B10" s="3">
         <v>3120</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1711,28 +1710,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -1757,11 +1757,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1772,11 +1772,11 @@
       <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>2000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -1786,11 +1786,11 @@
       <c r="C5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -1800,11 +1800,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -1814,11 +1814,11 @@
       <c r="B7" s="3">
         <v>1040</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
         <v>2000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
@@ -1828,11 +1828,11 @@
       <c r="B8" s="3">
         <v>1040</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
@@ -1842,26 +1842,25 @@
       <c r="B9" s="3">
         <v>1040</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:5">
       <c r="A10" s="10">
         <v>44172</v>
       </c>
-      <c r="B10" s="3"/>
       <c r="C10" s="3">
         <v>4000</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:5">
@@ -1871,12 +1870,39 @@
       <c r="B11" s="3">
         <v>3120</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
         <v>3000</v>
       </c>
-      <c r="E11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10">
+        <v>44174</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10">
+        <v>44174</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1892,19 +1918,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="32.1428571428571" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
@@ -1939,11 +1965,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1954,11 +1980,11 @@
       <c r="B4" s="3">
         <v>1040</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>1000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -1968,11 +1994,11 @@
       <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -1982,11 +2008,11 @@
       <c r="B6" s="3">
         <v>2080</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>2000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1996,11 +2022,25 @@
       <c r="C7" s="3">
         <v>1000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
         <v>1000</v>
       </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
+        <v>44174</v>
+      </c>
+      <c r="C8" s="3">
+        <v>900</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2016,19 +2056,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
@@ -2063,11 +2103,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2078,11 +2118,11 @@
       <c r="B4" s="3">
         <v>1040</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>1000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -2092,11 +2132,11 @@
       <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -2106,11 +2146,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -2120,11 +2160,25 @@
       <c r="C7" s="3">
         <v>1000</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
+        <v>44174</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2140,19 +2194,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
@@ -2187,11 +2241,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2202,11 +2256,11 @@
       <c r="B4" s="3">
         <v>3120</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>3000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -2216,11 +2270,11 @@
       <c r="C5" s="3">
         <v>3000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -2230,11 +2284,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -2244,11 +2298,11 @@
       <c r="B7" s="3">
         <v>2080</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
         <v>3000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2258,11 +2312,25 @@
       <c r="C8" s="3">
         <v>3000</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
+        <v>44174</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -2278,19 +2346,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
@@ -2325,11 +2393,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2340,11 +2408,11 @@
       <c r="B4" s="3">
         <v>2080</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>2000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -2354,11 +2422,11 @@
       <c r="C5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -2368,11 +2436,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2382,11 +2450,11 @@
       <c r="C7" s="3">
         <v>1000</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2396,11 +2464,25 @@
       <c r="B8" s="3">
         <v>2080</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
+        <v>44174</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2419,27 +2501,27 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="12"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="9" t="s">
@@ -2464,11 +2546,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2479,11 +2561,11 @@
       <c r="B4" s="3">
         <v>3120</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>3000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
@@ -2493,11 +2575,11 @@
       <c r="B5" s="3">
         <v>2080</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
         <v>5000</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -2507,11 +2589,11 @@
       <c r="C6" s="3">
         <v>5000</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -2521,26 +2603,25 @@
       <c r="B7" s="3">
         <v>3120</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
         <v>3000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10">
         <v>44173</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="3">
         <v>3000</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2640,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2567,8 +2648,8 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -2603,11 +2684,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+    <row r="3" s="7" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2618,26 +2699,25 @@
       <c r="B4" s="3">
         <v>1040</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>1000</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
       <c r="A5" s="10">
         <v>44172</v>
       </c>
-      <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
@@ -2647,11 +2727,11 @@
       <c r="B6" s="3">
         <v>1040</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -2661,11 +2741,11 @@
       <c r="B7" s="3">
         <v>2080</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
         <v>3000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
